--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col5a3</t>
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4980406666666666</v>
+        <v>0.8801540000000001</v>
       </c>
       <c r="H2">
-        <v>1.494122</v>
+        <v>2.640462</v>
       </c>
       <c r="I2">
-        <v>0.004393808999309369</v>
+        <v>0.007623830312051026</v>
       </c>
       <c r="J2">
-        <v>0.00439380899930937</v>
+        <v>0.007623830312051028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N2">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O2">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P2">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q2">
-        <v>12.17599628634356</v>
+        <v>25.94168041308067</v>
       </c>
       <c r="R2">
-        <v>109.583966577092</v>
+        <v>233.475123717726</v>
       </c>
       <c r="S2">
-        <v>0.0008307133557461468</v>
+        <v>0.002255718757075969</v>
       </c>
       <c r="T2">
-        <v>0.0008307133557461472</v>
+        <v>0.002255718757075969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4980406666666666</v>
+        <v>0.8801540000000001</v>
       </c>
       <c r="H3">
-        <v>1.494122</v>
+        <v>2.640462</v>
       </c>
       <c r="I3">
-        <v>0.004393808999309369</v>
+        <v>0.007623830312051026</v>
       </c>
       <c r="J3">
-        <v>0.00439380899930937</v>
+        <v>0.007623830312051028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q3">
-        <v>9.019886185521555</v>
+        <v>15.94024230765267</v>
       </c>
       <c r="R3">
-        <v>81.178975669694</v>
+        <v>143.462180768874</v>
       </c>
       <c r="S3">
-        <v>0.0006153861865108247</v>
+        <v>0.001386059152420114</v>
       </c>
       <c r="T3">
-        <v>0.0006153861865108248</v>
+        <v>0.001386059152420114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4980406666666666</v>
+        <v>0.8801540000000001</v>
       </c>
       <c r="H4">
-        <v>1.494122</v>
+        <v>2.640462</v>
       </c>
       <c r="I4">
-        <v>0.004393808999309369</v>
+        <v>0.007623830312051026</v>
       </c>
       <c r="J4">
-        <v>0.00439380899930937</v>
+        <v>0.007623830312051028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N4">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O4">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P4">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q4">
-        <v>3.021045954388</v>
+        <v>6.370641200476667</v>
       </c>
       <c r="R4">
-        <v>27.189413589492</v>
+        <v>57.33577080429001</v>
       </c>
       <c r="S4">
-        <v>0.0002061123511878645</v>
+        <v>0.0005539492670363082</v>
       </c>
       <c r="T4">
-        <v>0.0002061123511878645</v>
+        <v>0.0005539492670363083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4980406666666666</v>
+        <v>0.8801540000000001</v>
       </c>
       <c r="H5">
-        <v>1.494122</v>
+        <v>2.640462</v>
       </c>
       <c r="I5">
-        <v>0.004393808999309369</v>
+        <v>0.007623830312051026</v>
       </c>
       <c r="J5">
-        <v>0.00439380899930937</v>
+        <v>0.007623830312051028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N5">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O5">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P5">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q5">
-        <v>40.184349930998</v>
+        <v>39.424576173664</v>
       </c>
       <c r="R5">
-        <v>361.659149378982</v>
+        <v>354.821185562976</v>
       </c>
       <c r="S5">
-        <v>0.002741597105864533</v>
+        <v>0.003428103135518635</v>
       </c>
       <c r="T5">
-        <v>0.002741597105864533</v>
+        <v>0.003428103135518637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>276.339584</v>
       </c>
       <c r="I6">
-        <v>0.8126400327714922</v>
+        <v>0.7978778323334215</v>
       </c>
       <c r="J6">
-        <v>0.8126400327714922</v>
+        <v>0.7978778323334216</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N6">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O6">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P6">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q6">
-        <v>2251.964530710159</v>
+        <v>2714.946541026404</v>
       </c>
       <c r="R6">
-        <v>20267.68077639143</v>
+        <v>24434.51886923763</v>
       </c>
       <c r="S6">
-        <v>0.1536413914995792</v>
+        <v>0.2360739836253543</v>
       </c>
       <c r="T6">
-        <v>0.1536413914995792</v>
+        <v>0.2360739836253543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>276.339584</v>
       </c>
       <c r="I7">
-        <v>0.8126400327714922</v>
+        <v>0.7978778323334215</v>
       </c>
       <c r="J7">
-        <v>0.8126400327714922</v>
+        <v>0.7978778323334216</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q7">
         <v>1668.238334108175</v>
@@ -883,10 +883,10 @@
         <v>15014.14500697357</v>
       </c>
       <c r="S7">
-        <v>0.1138163836552489</v>
+        <v>0.1450590879850446</v>
       </c>
       <c r="T7">
-        <v>0.1138163836552489</v>
+        <v>0.1450590879850446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>276.339584</v>
       </c>
       <c r="I8">
-        <v>0.8126400327714922</v>
+        <v>0.7978778323334215</v>
       </c>
       <c r="J8">
-        <v>0.8126400327714922</v>
+        <v>0.7978778323334216</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N8">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O8">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P8">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q8">
-        <v>558.745927227136</v>
+        <v>666.7243607948089</v>
       </c>
       <c r="R8">
-        <v>5028.713345044224</v>
+        <v>6000.51924715328</v>
       </c>
       <c r="S8">
-        <v>0.0381207166379428</v>
+        <v>0.05797398713176645</v>
       </c>
       <c r="T8">
-        <v>0.03812071663794281</v>
+        <v>0.05797398713176646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>276.339584</v>
       </c>
       <c r="I9">
-        <v>0.8126400327714922</v>
+        <v>0.7978778323334215</v>
       </c>
       <c r="J9">
-        <v>0.8126400327714922</v>
+        <v>0.7978778323334216</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N9">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O9">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P9">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q9">
-        <v>7432.141781757056</v>
+        <v>4126.009379876181</v>
       </c>
       <c r="R9">
-        <v>66889.2760358135</v>
+        <v>37134.08441888563</v>
       </c>
       <c r="S9">
-        <v>0.5070615409787214</v>
+        <v>0.3587707735912561</v>
       </c>
       <c r="T9">
-        <v>0.5070615409787214</v>
+        <v>0.3587707735912562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.73931466666667</v>
+        <v>22.42634833333333</v>
       </c>
       <c r="H10">
-        <v>62.217944</v>
+        <v>67.279045</v>
       </c>
       <c r="I10">
-        <v>0.1829661582291984</v>
+        <v>0.1942554078175884</v>
       </c>
       <c r="J10">
-        <v>0.1829661582291984</v>
+        <v>0.1942554078175884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N10">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O10">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P10">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q10">
-        <v>507.030520324265</v>
+        <v>660.9947364844761</v>
       </c>
       <c r="R10">
-        <v>4563.274682918385</v>
+        <v>5948.952628360285</v>
       </c>
       <c r="S10">
-        <v>0.03459240747935299</v>
+        <v>0.05747577649845299</v>
       </c>
       <c r="T10">
-        <v>0.034592407479353</v>
+        <v>0.05747577649845299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.73931466666667</v>
+        <v>22.42634833333333</v>
       </c>
       <c r="H11">
-        <v>62.217944</v>
+        <v>67.279045</v>
       </c>
       <c r="I11">
-        <v>0.1829661582291984</v>
+        <v>0.1942554078175884</v>
       </c>
       <c r="J11">
-        <v>0.1829661582291984</v>
+        <v>0.1942554078175884</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>54.332227</v>
       </c>
       <c r="O11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q11">
-        <v>375.604384097921</v>
+        <v>406.1578161425795</v>
       </c>
       <c r="R11">
-        <v>3380.439456881288</v>
+        <v>3655.420345283215</v>
       </c>
       <c r="S11">
-        <v>0.02562579447374716</v>
+        <v>0.03531682564957749</v>
       </c>
       <c r="T11">
-        <v>0.02562579447374716</v>
+        <v>0.03531682564957749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.73931466666667</v>
+        <v>22.42634833333333</v>
       </c>
       <c r="H12">
-        <v>62.217944</v>
+        <v>67.279045</v>
       </c>
       <c r="I12">
-        <v>0.1829661582291984</v>
+        <v>0.1942554078175884</v>
       </c>
       <c r="J12">
-        <v>0.1829661582291984</v>
+        <v>0.1942554078175884</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N12">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O12">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P12">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q12">
-        <v>125.801820742576</v>
+        <v>162.3241144942528</v>
       </c>
       <c r="R12">
-        <v>1132.216386683184</v>
+        <v>1460.917030448275</v>
       </c>
       <c r="S12">
-        <v>0.008582891306007734</v>
+        <v>0.0141146426892918</v>
       </c>
       <c r="T12">
-        <v>0.008582891306007735</v>
+        <v>0.0141146426892918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>22.42634833333333</v>
+      </c>
+      <c r="H13">
+        <v>67.279045</v>
+      </c>
+      <c r="I13">
+        <v>0.1942554078175884</v>
+      </c>
+      <c r="J13">
+        <v>0.1942554078175884</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>44.79281599999999</v>
+      </c>
+      <c r="N13">
+        <v>134.378448</v>
+      </c>
+      <c r="O13">
+        <v>0.4496562744975863</v>
+      </c>
+      <c r="P13">
+        <v>0.4496562744975864</v>
+      </c>
+      <c r="Q13">
+        <v>1004.539294446907</v>
+      </c>
+      <c r="R13">
+        <v>9040.85365002216</v>
+      </c>
+      <c r="S13">
+        <v>0.0873481629802661</v>
+      </c>
+      <c r="T13">
+        <v>0.08734816298026611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>20.73931466666667</v>
-      </c>
-      <c r="H13">
-        <v>62.217944</v>
-      </c>
-      <c r="I13">
-        <v>0.1829661582291984</v>
-      </c>
-      <c r="J13">
-        <v>0.1829661582291984</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>80.684877</v>
-      </c>
-      <c r="N13">
-        <v>242.054631</v>
-      </c>
-      <c r="O13">
-        <v>0.6239682030546764</v>
-      </c>
-      <c r="P13">
-        <v>0.6239682030546765</v>
-      </c>
-      <c r="Q13">
-        <v>1673.349052944296</v>
-      </c>
-      <c r="R13">
-        <v>15060.14147649866</v>
-      </c>
-      <c r="S13">
-        <v>0.1141650649700905</v>
-      </c>
-      <c r="T13">
-        <v>0.1141650649700905</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02804566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.084137</v>
+      </c>
+      <c r="I14">
+        <v>0.0002429295369390043</v>
+      </c>
+      <c r="J14">
+        <v>0.0002429295369390043</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>29.47402433333333</v>
+      </c>
+      <c r="N14">
+        <v>88.422073</v>
+      </c>
+      <c r="O14">
+        <v>0.295877356230023</v>
+      </c>
+      <c r="P14">
+        <v>0.295877356230023</v>
+      </c>
+      <c r="Q14">
+        <v>0.8266186617778889</v>
+      </c>
+      <c r="R14">
+        <v>7.439567956001</v>
+      </c>
+      <c r="S14">
+        <v>7.18773491396963E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.187734913969631E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02804566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.084137</v>
+      </c>
+      <c r="I15">
+        <v>0.0002429295369390043</v>
+      </c>
+      <c r="J15">
+        <v>0.0002429295369390043</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.11074233333333</v>
+      </c>
+      <c r="N15">
+        <v>54.332227</v>
+      </c>
+      <c r="O15">
+        <v>0.1818061388681701</v>
+      </c>
+      <c r="P15">
+        <v>0.1818061388681701</v>
+      </c>
+      <c r="Q15">
+        <v>0.5079278425665555</v>
+      </c>
+      <c r="R15">
+        <v>4.571350583099001</v>
+      </c>
+      <c r="S15">
+        <v>4.416608112791288E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.416608112791289E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02804566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.084137</v>
+      </c>
+      <c r="I16">
+        <v>0.0002429295369390043</v>
+      </c>
+      <c r="J16">
+        <v>0.0002429295369390043</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.238098333333333</v>
+      </c>
+      <c r="N16">
+        <v>21.714295</v>
+      </c>
+      <c r="O16">
+        <v>0.07266023040422054</v>
+      </c>
+      <c r="P16">
+        <v>0.07266023040422054</v>
+      </c>
+      <c r="Q16">
+        <v>0.2029972931572222</v>
+      </c>
+      <c r="R16">
+        <v>1.826975638415</v>
+      </c>
+      <c r="S16">
+        <v>1.765131612597866E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.765131612597866E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02804566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.084137</v>
+      </c>
+      <c r="I17">
+        <v>0.0002429295369390043</v>
+      </c>
+      <c r="J17">
+        <v>0.0002429295369390043</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.79281599999999</v>
+      </c>
+      <c r="N17">
+        <v>134.378448</v>
+      </c>
+      <c r="O17">
+        <v>0.4496562744975863</v>
+      </c>
+      <c r="P17">
+        <v>0.4496562744975864</v>
+      </c>
+      <c r="Q17">
+        <v>1.256244386597333</v>
+      </c>
+      <c r="R17">
+        <v>11.306199479376</v>
+      </c>
+      <c r="S17">
+        <v>0.0001092347905454164</v>
+      </c>
+      <c r="T17">
+        <v>0.0001092347905454165</v>
       </c>
     </row>
   </sheetData>
